--- a/clstrsvm.xlsx
+++ b/clstrsvm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DEMO\Downloads\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DEMO\Documents\GitHub\ProjC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D7D3D1E-EAC8-4E80-A58D-660F61B55135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF904CD-2844-4753-8D99-095D5DDBC2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14160" xr2:uid="{E1C32BB8-87E5-4DD5-B3ED-381175E51E22}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>cls_name</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>svm1_cluster2</t>
+  </si>
+  <si>
+    <t>svm21</t>
   </si>
 </sst>
 </file>
@@ -418,7 +421,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +475,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
